--- a/FP2-G47-350-1201/FP-log-G47-0799-350-1201.xlsx
+++ b/FP2-G47-350-1201/FP-log-G47-0799-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\ensc350-finalprojectpart2\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11136696-26B1-4146-A8B1-1473C612A270}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59ACBD-6646-44D1-BF22-953AE1D4BBF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -121,31 +121,10 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Gxx</t>
-  </si>
-  <si>
     <t>Ruelt Yean (Ryan), Kiew</t>
   </si>
   <si>
     <t>G47</t>
-  </si>
-  <si>
-    <t>Read through Part 2 pdf</t>
-  </si>
-  <si>
-    <t>Reviewed Barrel Shifter design implementation</t>
-  </si>
-  <si>
-    <t>First implementation  of Barrel Shifter</t>
-  </si>
-  <si>
-    <t>Second implementation of Barrel Shifter; attempting to use same MUX entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third implementaiton of Barrel Shifter; error fixing, split MUX into three entities </t>
-  </si>
-  <si>
-    <t>Fixing compilation errors for second implementation</t>
   </si>
   <si>
     <t>Finished implementation of SLL and SRL</t>
@@ -163,13 +142,58 @@
     <t>Fixed logic errors for SRA, SLL and SRL</t>
   </si>
   <si>
-    <t>Fixed some errors that showed up in our modified ArithUnit.vhd</t>
+    <t>Fixed logic errors in ExecUnit and ShiftUnit, now passes all test cases (DONE)</t>
   </si>
   <si>
-    <t>Fixed logic errors for ExecUnit.vhd</t>
+    <t>Read through Part 2 pdf and set up project folder for initial compilation</t>
   </si>
   <si>
-    <t>Fixed logic errors in ExecUnit and ShiftUnit, now passes all test cases</t>
+    <t>Reviewed Barrel Shifter design implementation - reviewed notes and online sources</t>
+  </si>
+  <si>
+    <t>First implementation  of Barrel Shifter - uses 3 different MUX's for simplicity</t>
+  </si>
+  <si>
+    <t>Second implementation of Barrel Shifter - attempting to use one MUX entity</t>
+  </si>
+  <si>
+    <t>Fixing compilation errors for second implementation of Barrel Shifters</t>
+  </si>
+  <si>
+    <t>Fixing compilation errors for second implementation of Barrel Shifters (DONE)</t>
+  </si>
+  <si>
+    <t>Third implementaiton of Barrel Shifter - instead of using complicated logic within MUX, just pass options into MUX</t>
+  </si>
+  <si>
+    <t>Fixed some errors that showed up in our modified ArithUnit.vhd - wrong parameters were being passed</t>
+  </si>
+  <si>
+    <t>Fixed logic errors for ShiftUnit (DONE) - implemented 32-bit shifting for a shift of more than 32 bits</t>
+  </si>
+  <si>
+    <t>Fixed logic errors for ExecUnit</t>
+  </si>
+  <si>
+    <t>Compiling functional simulation screenshots for ShiftUnit</t>
+  </si>
+  <si>
+    <t>Compiling timing simulation screenshots for ShiftUnit</t>
+  </si>
+  <si>
+    <t>Compiling timing simulation screenshots for ShiftUnit (DONE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiling functional and timing simulation screenshots for ExecUnit </t>
+  </si>
+  <si>
+    <t>Adding comments to code for clarification</t>
+  </si>
+  <si>
+    <t>Compiling RTL netlist viewer screenshots for ShiftUnit and ExecUnit</t>
+  </si>
+  <si>
+    <t>Writing ShiftUnit section for report</t>
   </si>
 </sst>
 </file>
@@ -969,7 +993,7 @@
   <dimension ref="A1:I782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1013,9 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="38" t="s">
@@ -1002,7 +1028,9 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="39">
+        <v>301290779</v>
+      </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="38"/>
@@ -1014,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -2731,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD091BD6-3364-44DE-8BB4-985458F62AD8}">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2780,9 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="38" t="s">
@@ -2765,7 +2795,9 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="39">
+        <v>301290779</v>
+      </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="38"/>
@@ -2777,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -2828,7 +2860,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H11" si="0">(E6-D6)*24</f>
@@ -2852,7 +2884,7 @@
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H7" s="27">
         <f t="shared" si="0"/>
@@ -2875,7 +2907,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H8" s="27">
         <f t="shared" si="0"/>
@@ -2898,7 +2930,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H9" s="27">
         <f t="shared" si="0"/>
@@ -2921,7 +2953,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="0"/>
@@ -2944,7 +2976,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H11" s="27">
         <f t="shared" si="0"/>
@@ -2967,7 +2999,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H12" s="27">
         <f t="shared" ref="H12:H71" si="1">(E12-D12)*24</f>
@@ -2990,7 +3022,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H13" s="27">
         <f t="shared" si="1"/>
@@ -2999,7 +3031,9 @@
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14">
+        <v>779</v>
+      </c>
       <c r="C14" s="22">
         <v>43933</v>
       </c>
@@ -3011,7 +3045,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H14" s="27">
         <f t="shared" si="1"/>
@@ -3020,7 +3054,9 @@
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14">
+        <v>779</v>
+      </c>
       <c r="C15" s="22">
         <v>43933</v>
       </c>
@@ -3032,7 +3068,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H15" s="27">
         <f t="shared" si="1"/>
@@ -3041,7 +3077,9 @@
     </row>
     <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
-      <c r="B16" s="14"/>
+      <c r="B16" s="14">
+        <v>779</v>
+      </c>
       <c r="C16" s="22">
         <v>43934</v>
       </c>
@@ -3053,7 +3091,7 @@
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H16" s="27">
         <f t="shared" si="1"/>
@@ -3062,8 +3100,12 @@
     </row>
     <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="14">
+        <v>779</v>
+      </c>
+      <c r="C17" s="22">
+        <v>43934</v>
+      </c>
       <c r="D17" s="20">
         <v>0.58263888888888882</v>
       </c>
@@ -3072,7 +3114,7 @@
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H17" s="27">
         <f t="shared" si="1"/>
@@ -3081,8 +3123,12 @@
     </row>
     <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="14">
+        <v>779</v>
+      </c>
+      <c r="C18" s="22">
+        <v>43934</v>
+      </c>
       <c r="D18" s="20">
         <v>0.73125000000000007</v>
       </c>
@@ -3091,7 +3137,7 @@
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H18" s="27">
         <f t="shared" si="1"/>
@@ -3100,8 +3146,12 @@
     </row>
     <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="14">
+        <v>779</v>
+      </c>
+      <c r="C19" s="22">
+        <v>43935</v>
+      </c>
       <c r="D19" s="20">
         <v>0.34375</v>
       </c>
@@ -3110,7 +3160,7 @@
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19" s="27">
         <f t="shared" si="1"/>
@@ -3119,8 +3169,12 @@
     </row>
     <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="14">
+        <v>779</v>
+      </c>
+      <c r="C20" s="22">
+        <v>43935</v>
+      </c>
       <c r="D20" s="20">
         <v>0.3527777777777778</v>
       </c>
@@ -3129,7 +3183,7 @@
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H20" s="27">
         <f t="shared" si="1"/>
@@ -3138,8 +3192,12 @@
     </row>
     <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="14">
+        <v>779</v>
+      </c>
+      <c r="C21" s="22">
+        <v>43935</v>
+      </c>
       <c r="D21" s="20">
         <v>0.6645833333333333</v>
       </c>
@@ -3148,7 +3206,7 @@
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="1"/>
@@ -3157,93 +3215,163 @@
     </row>
     <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="14">
+        <v>779</v>
+      </c>
+      <c r="C22" s="22">
+        <v>43936</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0.84375</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.88124999999999998</v>
+      </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="H22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.89999999999999947</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="14">
+        <v>779</v>
+      </c>
+      <c r="C23" s="22">
+        <v>43936</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="H23" s="27">
         <f>(E23-D23)*24</f>
-        <v>0</v>
+        <v>0.83333333333333037</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="14">
+        <v>779</v>
+      </c>
+      <c r="C24" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.39374999999999999</v>
+      </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0666666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="14">
+        <v>779</v>
+      </c>
+      <c r="C25" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.4055555555555555</v>
+      </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.28333333333333233</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="14">
+        <v>779</v>
+      </c>
+      <c r="C26" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.59861111111111109</v>
+      </c>
       <c r="F26" s="34"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="H26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.31666666666666554</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="14">
+        <v>779</v>
+      </c>
+      <c r="C27" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.61527777777777781</v>
+      </c>
       <c r="F27" s="34"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="H27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.40000000000000124</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="14">
+        <v>779</v>
+      </c>
+      <c r="C28" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.94791666666666663</v>
+      </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="H28" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3666666666666663</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3900,7 +4028,7 @@
       <c r="F79" s="30"/>
       <c r="H79" s="29">
         <f>SUM(H6:H78)</f>
-        <v>17.416666666666664</v>
+        <v>23.583333333333325</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -4678,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
